--- a/业绩报表/839161.xlsx
+++ b/业绩报表/839161.xlsx
@@ -644,26 +644,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2019-09-30 00:00:00</t>
+          <t>2020-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.12</v>
+        <v>0.54</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>44576021.69</v>
+        <v>99369292.31999999</v>
       </c>
       <c r="L2" t="n">
-        <v>3588039.88</v>
+        <v>16094268.55</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>122.9209529084</v>
+      </c>
+      <c r="O2" t="n">
+        <v>348.5532237172</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.307587800667</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.393075698667</v>
+      </c>
       <c r="R2" t="n">
-        <v>36.4240691619</v>
+        <v>30.2504255874</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -688,22 +696,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2019Q3</t>
+          <t>2020Q3</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2019年 三季报</t>
+          <t>2020年 三季报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">

--- a/业绩报表/839161.xlsx
+++ b/业绩报表/839161.xlsx
@@ -644,34 +644,26 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2019-09-30 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.54</v>
+        <v>0.12</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>99369292.31999999</v>
+        <v>44576021.69</v>
       </c>
       <c r="L2" t="n">
-        <v>16094268.55</v>
+        <v>3588039.88</v>
       </c>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
-        <v>122.9209529084</v>
-      </c>
-      <c r="O2" t="n">
-        <v>348.5532237172</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.307587800667</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>-0.393075698667</v>
-      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>30.2504255874</v>
+        <v>36.4240691619</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -696,22 +688,22 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2020Q3</t>
+          <t>2019Q3</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2020年 三季报</t>
+          <t>2019年 三季报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
